--- a/salida.xlsx
+++ b/salida.xlsx
@@ -41997,7 +41997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42172,64 +42172,194 @@
       </c>
       <c r="AG1" s="6" t="inlineStr">
         <is>
-          <t>8. Por favor elija una opción de respuesta a cada afirmación. Seleccione la que mejor describa su situación.</t>
+          <t>¿Cómo lo soporta para lograr los resultados de su cargo?</t>
         </is>
       </c>
       <c r="AH1" s="6" t="inlineStr">
         <is>
-          <t>9. Por favor elija una opción de respuesta a cada afirmación. Seleccione la que mejor describa su situación.</t>
+          <t>Cuento con los recursos mínimos que requiero para realizar de forma adecuada mi trabajo.</t>
         </is>
       </c>
       <c r="AI1" s="6" t="inlineStr">
         <is>
-          <t>Cuento con los recursos mínimos que requiero para realizar de forma adecuada mi trabajo.</t>
+          <t>Puedo acceder a toda la información que necesito para hacer bien mi trabajo.</t>
         </is>
       </c>
       <c r="AJ1" s="6" t="inlineStr">
         <is>
-          <t>Puedo acceder a toda la información que necesito para hacer bien mi trabajo.</t>
+          <t>Siento que mi cargo me brinda la oportunidad de progresar y desarrollarme.</t>
         </is>
       </c>
       <c r="AK1" s="6" t="inlineStr">
         <is>
-          <t>Siento que mi cargo me brinda la oportunidad de progresar y desarrollarme.</t>
+          <t>Todos en la organización tienen claro su cargo y comprenden bien el alcance sus responsabilidades.</t>
         </is>
       </c>
       <c r="AL1" s="6" t="inlineStr">
         <is>
-          <t>Todos en la organización tienen claro su cargo y comprenden bien el alcance sus responsabilidades.</t>
+          <t>La formación que brinda la Organización realmente me ayuda a realizar mejor mi trabajo.</t>
         </is>
       </c>
       <c r="AM1" s="6" t="inlineStr">
         <is>
-          <t>La formación que brinda la Organización realmente me ayuda a realizar mejor mi trabajo.</t>
+          <t>El entrenamiento que recibo en mi cargo me ayuda progresar a nivel personal y profesional.</t>
         </is>
       </c>
       <c r="AN1" s="6" t="inlineStr">
         <is>
-          <t>El entrenamiento que recibo en mi cargo me ayuda progresar a nivel personal y profesional.</t>
+          <t>Me evalúan por mi desempeño y tengo opciones de recibir reconocimiento si he realizado un esfuerzo por hacer mi trabajo de manera sobresaliente.</t>
         </is>
       </c>
       <c r="AO1" s="6" t="inlineStr">
         <is>
-          <t>Me evalúan por mi desempeño y tengo opciones de recibir reconocimiento si he realizado un esfuerzo por hacer mi trabajo de manera sobresaliente.</t>
+          <t>En esta Organización celebramos los éxitos y nos felicitamos por los logros obtenidos.</t>
         </is>
       </c>
       <c r="AP1" s="6" t="inlineStr">
         <is>
-          <t>En esta Organización celebramos los éxitos y nos felicitamos por los logros obtenidos.</t>
+          <t>¿Cómo es la dinámica del trabajo conjunto para lograr resultados?</t>
+        </is>
+      </c>
+      <c r="AQ1" s="6" t="inlineStr">
+        <is>
+          <t>La comunicación entre áreas fluye de manera adecuada.</t>
+        </is>
+      </c>
+      <c r="AR1" s="6" t="inlineStr">
+        <is>
+          <t>Mi jefe se comunica de forma clara y verifica que yo haya comprendido lo que me dice.</t>
+        </is>
+      </c>
+      <c r="AS1" s="6" t="inlineStr">
+        <is>
+          <t>Conozco personas de diferentes áreas a la mía y se puede trabajar en un entorno agradable, de camaradería y cooperación.</t>
+        </is>
+      </c>
+      <c r="AT1" s="6" t="inlineStr">
+        <is>
+          <t>En mi área se facilita y promueve el trabajo en equipo, la integración y la colaboración entre compañeros.</t>
+        </is>
+      </c>
+      <c r="AU1" s="6" t="inlineStr">
+        <is>
+          <t>En la Organización las decisiones se toman de forma oportuna y no se aplazan decisiones importantes.</t>
+        </is>
+      </c>
+      <c r="AV1" s="6" t="inlineStr">
+        <is>
+          <t>Las decisiones que se toman en la organización se hacen con base en análisis completos y sistemáticos.</t>
+        </is>
+      </c>
+      <c r="AW1" s="6" t="inlineStr">
+        <is>
+          <t>Los líderes en la organización inspiran, motivan a los equipos y dan ejemplo con su comportamiento.</t>
+        </is>
+      </c>
+      <c r="AX1" s="6" t="inlineStr">
+        <is>
+          <t>Los jefes forman a sus colaboradores y les dan una adecuada y oportuna retroalimentación sobre su desempeño.</t>
+        </is>
+      </c>
+      <c r="AY1" s="6" t="inlineStr">
+        <is>
+          <t>¿Cómo es la cultura?</t>
+        </is>
+      </c>
+      <c r="AZ1" s="6" t="inlineStr">
+        <is>
+          <t>Los jefes y directivos son cordiales y respetuosos en el trato con personas de todos los niveles en la Organización.</t>
+        </is>
+      </c>
+      <c r="BA1" s="6" t="inlineStr">
+        <is>
+          <t>Puedo dar mi punto de vista y sugerencias a la organización sabiendo que de ser posible se van a tener en cuenta.</t>
+        </is>
+      </c>
+      <c r="BB1" s="6" t="inlineStr">
+        <is>
+          <t>Siento que las relaciones en esta Organización se establecen sobre la base de la confianza en las personas.</t>
+        </is>
+      </c>
+      <c r="BC1" s="6" t="inlineStr">
+        <is>
+          <t>Puedo determinar formas propias de hacer mis labores mientras cumpla con las políticas de la Organización.</t>
+        </is>
+      </c>
+      <c r="BD1" s="6" t="inlineStr">
+        <is>
+          <t>En esta Organización el trato es justo y equitativo, sin discriminiaciones por género, edad, raza u orientación sexual.</t>
+        </is>
+      </c>
+      <c r="BE1" s="6" t="inlineStr">
+        <is>
+          <t>En esta Organización se evita que se utilice la intimidación y el hostigamiento para inducir la renuncia de algún empleado.</t>
+        </is>
+      </c>
+      <c r="BF1" s="6" t="inlineStr">
+        <is>
+          <t>Yo quiero a la Organización y me siento comprometido con mi trabajo.</t>
+        </is>
+      </c>
+      <c r="BG1" s="6" t="inlineStr">
+        <is>
+          <t>Me gusta mi trabajo y siento que estoy haciendo algo de valor para la Organización.</t>
+        </is>
+      </c>
+      <c r="BH1" s="6" t="inlineStr">
+        <is>
+          <t>¿Cómo genera un ambiente sano, limpio y seguro?</t>
+        </is>
+      </c>
+      <c r="BI1" s="6" t="inlineStr">
+        <is>
+          <t>Puedo desempeñar mi trabajo de forma segura y cómoda en cuanto a temperatura, sonido, espacio e iluminación.</t>
+        </is>
+      </c>
+      <c r="BJ1" s="6" t="inlineStr">
+        <is>
+          <t>Puedo manejar el estrés que se genera en mi trabajo para evitar que se afecte mi salud.</t>
+        </is>
+      </c>
+      <c r="BK1" s="6" t="inlineStr">
+        <is>
+          <t>Los procesos de la organización cuentan con controles efectivos de calidad.</t>
+        </is>
+      </c>
+      <c r="BL1" s="6" t="inlineStr">
+        <is>
+          <t>Se revisa de forma constante la calidad de los procesos y servicios en busca de un mejoramiento continuo.</t>
+        </is>
+      </c>
+      <c r="BM1" s="6" t="inlineStr">
+        <is>
+          <t>Se nota una sensibilidad en la Organización por cuidar el impacto que su operación pueda generar en el medio ambiente.</t>
+        </is>
+      </c>
+      <c r="BN1" s="6" t="inlineStr">
+        <is>
+          <t>La Organización implementa políticas y/o procedimientos para que los empleados cuidemos el medio ambiente.</t>
+        </is>
+      </c>
+      <c r="BO1" s="6" t="inlineStr">
+        <is>
+          <t>La Organización contrata empleados y proveedores cumpliendo con todas los requisitos legales y pagando oportunamente.</t>
+        </is>
+      </c>
+      <c r="BP1" s="6" t="inlineStr">
+        <is>
+          <t>La Organización cuida el impacto que puede tener en la comunidad en donde opera y busca aportar a la misma.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>963</v>
+        <v>1010</v>
       </c>
       <c r="B2" t="n">
         <v>963</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>20.87</v>
@@ -42323,28 +42453,106 @@
         <v>7.3</v>
       </c>
       <c r="AI2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>7.3</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8</v>
       </c>
       <c r="AK2" t="n">
         <v>7.3</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>7</v>
       </c>
       <c r="AN2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AU2" t="n">
         <v>7</v>
       </c>
-      <c r="AO2" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>6.7</v>
+      <c r="AV2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/salida.xlsx
+++ b/salida.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I965"/>
+  <dimension ref="A1:I964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1357,6 +1358,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1622,6 +1624,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1752,6 +1755,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1837,6 +1841,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1877,6 +1882,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1962,6 +1968,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2002,6 +2009,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2087,6 +2095,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2217,6 +2226,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2257,6 +2267,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2342,6 +2353,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2472,6 +2484,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2647,6 +2660,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2732,6 +2746,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2862,6 +2877,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3082,6 +3098,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3212,6 +3229,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3342,6 +3360,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3472,6 +3491,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3557,6 +3577,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3642,6 +3663,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3952,6 +3974,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3992,6 +4015,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4077,6 +4101,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4117,6 +4142,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4202,6 +4228,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4287,6 +4314,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4327,6 +4355,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4457,6 +4486,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4632,6 +4662,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4672,6 +4703,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4892,6 +4924,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4932,6 +4965,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5107,6 +5141,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5147,6 +5182,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5187,6 +5223,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5452,6 +5489,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5537,6 +5575,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5622,6 +5661,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5662,6 +5702,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5702,6 +5743,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5742,6 +5784,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5827,6 +5870,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5957,6 +6001,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6042,6 +6087,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6307,6 +6353,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6437,6 +6484,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6477,6 +6525,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6562,6 +6611,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6647,6 +6697,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6777,6 +6828,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -7042,6 +7094,7 @@
           <t>TRABAJADOR OFICIAL</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -7352,6 +7405,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -7482,6 +7536,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7927,6 +7982,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -8057,6 +8113,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -8142,6 +8199,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -8272,6 +8330,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -8312,6 +8371,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -8397,6 +8457,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -8482,6 +8543,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8522,6 +8584,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8652,6 +8715,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8872,6 +8936,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8957,6 +9022,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8997,6 +9063,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -9037,6 +9104,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -9122,6 +9190,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -9162,6 +9231,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -9202,6 +9272,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -9422,6 +9493,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -9507,6 +9579,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -9817,6 +9890,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -9947,6 +10021,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -10032,6 +10107,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -10162,6 +10238,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -10292,6 +10369,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -10332,6 +10410,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -10597,6 +10676,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10682,6 +10762,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -10722,6 +10803,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -10942,6 +11024,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -11432,6 +11515,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -11472,6 +11556,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -11602,6 +11687,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -11642,6 +11728,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -11772,6 +11859,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -11992,6 +12080,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -12032,6 +12121,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -12252,6 +12342,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -12292,6 +12383,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -12377,6 +12469,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -12552,6 +12645,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -12592,6 +12686,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -12632,6 +12727,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -12672,6 +12768,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -12757,6 +12854,7 @@
           <t>TRABAJADOR OFICIAL</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -12797,6 +12895,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -12837,6 +12936,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -13057,6 +13157,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -13142,6 +13243,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -13317,6 +13419,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -13447,6 +13550,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -13487,6 +13591,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -13617,6 +13722,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -13702,6 +13808,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -13787,6 +13894,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -13827,6 +13935,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -13957,6 +14066,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -13997,6 +14107,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -14037,6 +14148,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -14077,6 +14189,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -14162,6 +14275,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -14202,6 +14316,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -14377,6 +14492,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -14417,6 +14533,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -14547,6 +14664,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -14632,6 +14750,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -14672,6 +14791,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -14712,6 +14832,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -14752,6 +14873,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -14792,6 +14914,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -14832,6 +14955,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -14872,6 +14996,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -14912,6 +15037,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -15087,6 +15213,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -15127,6 +15254,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -15167,6 +15295,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -15207,6 +15336,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -15292,6 +15422,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -15377,6 +15508,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -15462,6 +15594,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -15592,6 +15725,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -15632,6 +15766,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -15852,6 +15987,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -15937,6 +16073,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -16065,6 +16202,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -16330,6 +16468,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -16460,6 +16599,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -16500,6 +16640,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -16585,6 +16726,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -16625,6 +16767,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -16710,6 +16853,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -16885,6 +17029,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -16970,6 +17115,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -17190,6 +17336,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -17230,6 +17377,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -17315,6 +17463,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -17445,6 +17594,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -17485,6 +17635,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -17525,6 +17676,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -17610,6 +17762,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -17740,6 +17893,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -17915,6 +18069,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -18000,6 +18155,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -18265,6 +18421,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -18350,6 +18507,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -18435,6 +18593,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -18565,6 +18724,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -18605,6 +18765,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -18735,6 +18896,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -18775,6 +18937,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -18860,6 +19023,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -18945,6 +19109,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -18985,6 +19150,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -19070,6 +19236,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -19110,6 +19277,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -19195,6 +19363,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -19325,6 +19494,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -19365,6 +19535,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -19405,6 +19576,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -19445,6 +19617,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -19485,6 +19658,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -19615,6 +19789,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -19745,6 +19920,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -19830,6 +20006,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -19870,6 +20047,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -19910,6 +20088,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -19995,6 +20174,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -20080,6 +20260,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -20300,6 +20481,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -20340,6 +20522,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -20470,6 +20653,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -20555,6 +20739,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -20685,6 +20870,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -20860,6 +21046,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -20945,6 +21132,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -20985,6 +21173,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -21025,6 +21214,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -21155,6 +21345,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -21285,6 +21476,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -21370,6 +21562,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -21410,6 +21603,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -21495,6 +21689,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -21715,6 +21910,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -21755,6 +21951,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -21795,6 +21992,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -21880,6 +22078,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -21965,6 +22164,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -22230,6 +22430,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -22405,6 +22606,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -22625,6 +22827,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -22710,6 +22913,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -22795,6 +22999,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -23150,6 +23355,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -23730,6 +23936,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -23815,6 +24022,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -23900,6 +24108,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -23985,6 +24194,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -24205,6 +24415,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -24380,6 +24591,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -24465,6 +24677,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -24685,6 +24898,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -24725,6 +24939,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -24810,6 +25025,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -24940,6 +25156,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -25025,6 +25242,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -25155,6 +25373,7 @@
           <t>TRABAJADOR OFICIAL</t>
         </is>
       </c>
+      <c r="I573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -25195,6 +25414,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -25280,6 +25500,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -25500,6 +25721,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -25540,6 +25762,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -25715,6 +25938,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -25800,6 +26024,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -25840,6 +26065,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -25970,6 +26196,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -26010,6 +26237,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -26095,6 +26323,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -26270,6 +26499,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -26310,6 +26540,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -26350,6 +26581,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -26570,6 +26802,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -26700,6 +26933,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -26740,6 +26974,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -26825,6 +27060,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -26955,6 +27191,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -27310,6 +27547,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -27350,6 +27588,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -27390,6 +27629,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -27430,6 +27670,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -27470,6 +27711,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -27645,6 +27887,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -27685,6 +27928,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -27725,6 +27969,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -27810,6 +28055,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -27940,6 +28186,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -28070,6 +28317,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -28155,6 +28403,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -28330,6 +28579,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -28505,6 +28755,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -28545,6 +28796,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -28585,6 +28837,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -28670,6 +28923,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -28755,6 +29009,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -28840,6 +29095,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -28880,6 +29136,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -29010,6 +29267,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -29050,6 +29308,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -29090,6 +29349,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -29535,6 +29795,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -29665,6 +29926,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -29750,6 +30012,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -29835,6 +30098,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -29875,6 +30139,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -29915,6 +30180,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -29955,6 +30221,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -30040,6 +30307,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -30125,6 +30393,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -30210,6 +30479,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -30250,6 +30520,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -30515,6 +30786,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -30600,6 +30872,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -30730,6 +31003,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -30950,6 +31224,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -30990,6 +31265,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -31030,6 +31306,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -31070,6 +31347,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -31155,6 +31433,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -31375,6 +31654,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -31460,6 +31740,7 @@
           <t>TRABAJADOR OFICIAL</t>
         </is>
       </c>
+      <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -31500,6 +31781,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -31540,6 +31822,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -31670,6 +31953,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -31845,6 +32129,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -31885,6 +32170,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -31925,6 +32211,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -31965,6 +32252,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -32005,6 +32293,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -32045,6 +32334,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -32130,6 +32420,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -32260,6 +32551,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -32390,6 +32682,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -32565,6 +32858,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -32695,6 +32989,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -32780,6 +33075,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -32910,6 +33206,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -33040,6 +33337,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -33170,6 +33468,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -33210,6 +33509,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -33385,6 +33685,7 @@
           <t>TRABAJADOR OFICIAL</t>
         </is>
       </c>
+      <c r="I765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -33470,6 +33771,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -33510,6 +33812,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -33640,6 +33943,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -33725,6 +34029,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -33765,6 +34070,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -33850,6 +34156,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -33935,6 +34242,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -34020,6 +34328,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -34105,6 +34414,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -34190,6 +34500,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -34365,6 +34676,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -34450,6 +34762,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -34715,6 +35028,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -34755,6 +35069,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -34975,6 +35290,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -35375,6 +35691,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -35460,6 +35777,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -35500,6 +35818,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -35540,6 +35859,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -35940,6 +36260,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="n">
@@ -35980,6 +36301,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="n">
@@ -36065,6 +36387,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -36105,6 +36428,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -36190,6 +36514,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="n">
@@ -36230,6 +36555,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -36405,6 +36731,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -36535,6 +36862,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -36575,6 +36903,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -36885,6 +37214,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -36970,6 +37300,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="n">
@@ -37100,6 +37431,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="n">
@@ -37140,6 +37472,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -37225,6 +37558,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -37265,6 +37599,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -37305,6 +37640,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -37390,6 +37726,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="n">
@@ -37475,6 +37812,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -37515,6 +37853,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="n">
@@ -37645,6 +37984,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="n">
@@ -37730,6 +38070,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -37815,6 +38156,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -37855,6 +38197,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -38030,6 +38373,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="n">
@@ -38160,6 +38504,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -38200,6 +38545,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="n">
@@ -38240,6 +38586,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -38325,6 +38672,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -38365,6 +38713,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="n">
@@ -38450,6 +38799,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -38535,6 +38885,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -38665,6 +39016,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -38705,6 +39057,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -38835,6 +39188,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -38875,6 +39229,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -39050,6 +39405,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -39180,6 +39536,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -39220,6 +39577,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -39260,6 +39618,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -39390,6 +39749,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="n">
@@ -39430,6 +39790,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="n">
@@ -39695,6 +40056,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="n">
@@ -39825,6 +40187,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -39865,6 +40228,7 @@
           <t>PROVISIONAL</t>
         </is>
       </c>
+      <c r="I916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="n">
@@ -40130,6 +40494,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="n">
@@ -40170,6 +40535,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -40210,6 +40576,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -40250,6 +40617,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="n">
@@ -40380,6 +40748,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -40420,6 +40789,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -40820,6 +41190,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -40995,6 +41366,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="n">
@@ -41080,6 +41452,7 @@
           <t>CARRERA ADMINISTRATIVA</t>
         </is>
       </c>
+      <c r="I944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="n">
@@ -41210,6 +41583,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="n">
@@ -41250,6 +41624,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="n">
@@ -41290,6 +41665,7 @@
           <t>LIBRE NOMBRAMIENTO</t>
         </is>
       </c>
+      <c r="I949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="n">
@@ -41420,6 +41796,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -41460,6 +41837,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -41635,6 +42013,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -41765,6 +42144,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -41850,6 +42230,7 @@
           <t>CONTRATISTA</t>
         </is>
       </c>
+      <c r="I962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -41938,51 +42319,6 @@
       <c r="I964" t="inlineStr">
         <is>
           <t>ninguna</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="n">
-        <v>1020803676</v>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>RELACIONAMIENTO CON EL CIUDADANO</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr">
-        <is>
-          <t>CARRERA ADMINISTRATIVA</t>
-        </is>
-      </c>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>MOSQUERA</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr">
-        <is>
-          <t>Detractores</t>
-        </is>
-      </c>
-      <c r="F965" t="inlineStr">
-        <is>
-          <t>Centenialls</t>
-        </is>
-      </c>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>Entre 1 y 5 años</t>
-        </is>
-      </c>
-      <c r="H965" t="inlineStr">
-        <is>
-          <t>CARRERA ADMINISTRATIVA</t>
-        </is>
-      </c>
-      <c r="I965" t="inlineStr">
-        <is>
-          <t>Si bien la medición de clima y cultura organizacional 2025 permitió identificar percepciones valiosas sobre el ambiente laboral y los valores institucionales, se sugiere fortalecer el proceso de retroalimentación a los servidores públicos, de manera que los resultados se socialicen oportunamente y se traduzcan en planes de acción concretos por dependencia. Esto permitirá que los hallazgos no solo se reconozcan, sino que se conviertan en iniciativas de mejora continua, fomentando la participación activa de todos los funcionarios y garantizando que los avances puedan ser medidos en la siguiente medición</t>
         </is>
       </c>
     </row>
@@ -42388,7 +42724,6 @@
       <c r="L2" t="n">
         <v>9.42</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>8.300000000000001</v>
       </c>
